--- a/resources/company.xlsx
+++ b/resources/company.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Techidol solutions\CRM\crm_dashboard\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F86C56-F933-4B42-80D9-CD9DB068EDB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7725A869-82A7-4C1E-9E42-813808246E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>Company Name</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Phone Number</t>
   </si>
   <si>
-    <t>Email Id</t>
-  </si>
-  <si>
     <t>GSTIN Number</t>
   </si>
   <si>
@@ -45,18 +42,6 @@
     <t>HSN Services No</t>
   </si>
   <si>
-    <t>street</t>
-  </si>
-  <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>pincode</t>
-  </si>
-  <si>
     <t>dylxg3362</t>
   </si>
   <si>
@@ -66,15 +51,6 @@
     <t>BVG INDIA Ltd, MP Circle</t>
   </si>
   <si>
-    <t>66, New MLA Colony, North TT Nagar</t>
-  </si>
-  <si>
-    <t>BHOPAL</t>
-  </si>
-  <si>
-    <t>Madhya Pradesh</t>
-  </si>
-  <si>
     <t>dylxg3363</t>
   </si>
   <si>
@@ -114,21 +90,6 @@
     <t>xlxs246dfg64</t>
   </si>
   <si>
-    <t>bvg1.pvtltd@gmail.com</t>
-  </si>
-  <si>
-    <t>bvg2.pvtltd@gmail.com</t>
-  </si>
-  <si>
-    <t>bvg3.pvtltd@gmail.com</t>
-  </si>
-  <si>
-    <t>bvg4.pvtltd@gmail.com</t>
-  </si>
-  <si>
-    <t>bvg5.pvtltd@gmail.com</t>
-  </si>
-  <si>
     <t>Perfect Travels</t>
   </si>
   <si>
@@ -139,24 +100,22 @@
   </si>
   <si>
     <t>delloite</t>
+  </si>
+  <si>
+    <t>66, New MLA Colony, North TT Nagar , Bhopal ,Madhya Pradesh , 462042</t>
+  </si>
+  <si>
+    <t>address</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -185,16 +144,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -473,227 +429,144 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="24.36328125" customWidth="1"/>
-    <col min="2" max="2" width="20.26953125" customWidth="1"/>
-    <col min="3" max="3" width="21.90625" customWidth="1"/>
-    <col min="4" max="4" width="16.7265625" customWidth="1"/>
-    <col min="5" max="5" width="14.36328125" customWidth="1"/>
-    <col min="6" max="6" width="15.453125" customWidth="1"/>
-    <col min="7" max="7" width="31.81640625" customWidth="1"/>
-    <col min="8" max="8" width="9.36328125" customWidth="1"/>
-    <col min="9" max="9" width="23.26953125" customWidth="1"/>
-    <col min="10" max="10" width="17.90625" customWidth="1"/>
+    <col min="2" max="2" width="16.7265625" customWidth="1"/>
+    <col min="3" max="3" width="15.453125" customWidth="1"/>
+    <col min="4" max="4" width="14.36328125" customWidth="1"/>
+    <col min="5" max="5" width="20.26953125" customWidth="1"/>
+    <col min="6" max="6" width="65" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="E2">
+        <v>7545364536</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>9</v>
+      <c r="E3">
+        <v>7545364537</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>7545364538</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="B2">
-        <v>7545364536</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E5">
+        <v>7545364539</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2">
-        <v>462042</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3">
-        <v>7545364537</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E6">
+        <v>7545364540</v>
+      </c>
+      <c r="F6" t="s">
         <v>25</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3">
-        <v>462041</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4">
-        <v>7545364538</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4">
-        <v>462042</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5">
-        <v>7545364539</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5">
-        <v>462042</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6">
-        <v>7545364540</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6">
-        <v>462042</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{C171F749-83F5-47AC-9440-2517774FFAF8}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{7A9A3D7D-368F-40F3-9E0D-2ED05FAA5EC9}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{12554EC7-0A49-4B59-BCEE-60F3C7510E18}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{A839EA36-83F9-49F8-A90B-A9524EE32A8E}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{5463A7E7-08B2-49A4-9548-998A99E7476E}"/>
-  </hyperlinks>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>